--- a/data/parties_economic_socio-political_rating.xlsx
+++ b/data/parties_economic_socio-political_rating.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Somebody\Documents\CAS\Zertifikatsarbeit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Somebody\Documents\CAS_R_Project\cas_thesis_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3C26E-1E9E-4F44-8D99-207652A018A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE352B-AEFB-4CCD-81EF-CA9C0B85F731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3330" windowWidth="38700" windowHeight="15435" activeTab="3" xr2:uid="{0A4EB484-6AE3-4C3E-930D-E14B856DD63F}"/>
+    <workbookView xWindow="27255" yWindow="4215" windowWidth="15900" windowHeight="15600" xr2:uid="{0A4EB484-6AE3-4C3E-930D-E14B856DD63F}"/>
   </bookViews>
   <sheets>
-    <sheet name="eco" sheetId="1" r:id="rId1"/>
-    <sheet name="socio" sheetId="2" r:id="rId2"/>
-    <sheet name="matrix_eco-socio" sheetId="4" r:id="rId3"/>
-    <sheet name="matrix_eco-socio_enhanced" sheetId="7" r:id="rId4"/>
-    <sheet name="cluster" sheetId="3" r:id="rId5"/>
+    <sheet name="3d" sheetId="8" r:id="rId1"/>
+    <sheet name="eco" sheetId="1" r:id="rId2"/>
+    <sheet name="socio" sheetId="2" r:id="rId3"/>
+    <sheet name="matrix_eco-socio" sheetId="4" r:id="rId4"/>
+    <sheet name="matrix_eco-socio_enhanced" sheetId="7" r:id="rId5"/>
+    <sheet name="cluster" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="226">
   <si>
     <t>Cluster</t>
   </si>
@@ -701,16 +702,39 @@
   </si>
   <si>
     <t>Regional (Genf)</t>
+  </si>
+  <si>
+    <t>socio_pct_avg_x</t>
+  </si>
+  <si>
+    <t>socio_pct_min_x</t>
+  </si>
+  <si>
+    <t>socio_pct_max_x</t>
+  </si>
+  <si>
+    <t>GRÜNE</t>
+  </si>
+  <si>
+    <t>oeco_pct_min_x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,27 +757,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1062,12 +1078,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE0938-6FAC-4866-A481-1DBFB773DC9D}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>24.5</v>
+      </c>
+      <c r="C2">
+        <v>30.4</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>74.5</v>
+      </c>
+      <c r="C3">
+        <v>41.9</v>
+      </c>
+      <c r="D3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>51.3</v>
+      </c>
+      <c r="C4">
+        <v>51.5</v>
+      </c>
+      <c r="D4">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>10.6</v>
+      </c>
+      <c r="C5">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D5">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>46.3</v>
+      </c>
+      <c r="C6">
+        <v>20.6</v>
+      </c>
+      <c r="D6">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>9.4</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B8F4E1-00F5-4FB8-AD19-F405911728F9}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,13 +1397,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172BD9CD-D14A-425C-AE48-5B5E427C9FFB}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,13 +1421,13 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1437,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AF73E1-9F4E-4B6E-8DAD-AE67D54B4F81}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:I8"/>
@@ -1738,13 +1886,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13053396-000F-4C08-9794-39B5AE022B9D}">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.7109375" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1860,7 +2008,7 @@
       <c r="N2" t="s">
         <v>166</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>206</v>
       </c>
       <c r="P2" t="s">
@@ -3347,11 +3495,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{9FD9C483-99C5-46D9-9E99-E8D5F9F41A20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CC9F4E-34AD-48E7-8EF9-074980796C8C}">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:C6"/>
